--- a/src/test/resources/testdata/Book1.xlsx
+++ b/src/test/resources/testdata/Book1.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14975" windowHeight="7055"/>
+    <workbookView windowWidth="17004" windowHeight="8472" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="AddReport" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="addEmp" sheetId="4" r:id="rId4"/>
+    <sheet name="empPersonalDetails" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
   <oleSize ref="A1:E3"/>
@@ -16,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="73">
   <si>
     <t>FirstName</t>
   </si>
@@ -45,7 +48,7 @@
     <t>Barindik</t>
   </si>
   <si>
-    <t>reyhanee@gamil.com</t>
+    <t>reyhaneeT@gamil.com</t>
   </si>
   <si>
     <t>njfjffbf@</t>
@@ -60,7 +63,7 @@
     <t>Yakut</t>
   </si>
   <si>
-    <t>yunusssu@gmail.com</t>
+    <t>yunusssuY@gmail.com</t>
   </si>
   <si>
     <t>jhskjfhjk@</t>
@@ -75,7 +78,7 @@
     <t>Inci</t>
   </si>
   <si>
-    <t>gulsuminiic@gamil.com</t>
+    <t>gulsuminiicG@gamil.com</t>
   </si>
   <si>
     <t>jhffgfhg#@</t>
@@ -90,7 +93,7 @@
     <t>Duman</t>
   </si>
   <si>
-    <t>senelDumann@gmail.com</t>
+    <t>senelDumannS@gmail.com</t>
   </si>
   <si>
     <t>hfsjkhfh$#</t>
@@ -102,7 +105,7 @@
     <t>Dogruer</t>
   </si>
   <si>
-    <t>turkerdogrueeer@gmail.com</t>
+    <t>turkerdogrueeerT@gmail.com</t>
   </si>
   <si>
     <t>jbkjvjbjvkjj@</t>
@@ -160,6 +163,81 @@
   </si>
   <si>
     <t>Pay Grade</t>
+  </si>
+  <si>
+    <t>reyhanBBD</t>
+  </si>
+  <si>
+    <t>njfjffbf@H7</t>
+  </si>
+  <si>
+    <t>yunusYakutTT</t>
+  </si>
+  <si>
+    <t>jhskjfhjk@F5</t>
+  </si>
+  <si>
+    <t>gulsumInceGG</t>
+  </si>
+  <si>
+    <t>jhffgfhg#@7A</t>
+  </si>
+  <si>
+    <t>senelDumanYY</t>
+  </si>
+  <si>
+    <t>hfsjkhfh$#9B</t>
+  </si>
+  <si>
+    <t>turkerdogruerTT</t>
+  </si>
+  <si>
+    <t>jbkjvjbjvkjj@4Z</t>
+  </si>
+  <si>
+    <t>Selma</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Acar</t>
+  </si>
+  <si>
+    <t>selmaAcarSS</t>
+  </si>
+  <si>
+    <t>acarrrr9FHA@</t>
+  </si>
+  <si>
+    <t>Driver's License Number</t>
+  </si>
+  <si>
+    <t>License Expiry Date</t>
+  </si>
+  <si>
+    <t>SSN Number</t>
+  </si>
+  <si>
+    <t>SIN Number</t>
+  </si>
+  <si>
+    <t>Marital Status</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Nick Name</t>
+  </si>
+  <si>
+    <t>Smoker</t>
+  </si>
+  <si>
+    <t>Military Service</t>
   </si>
 </sst>
 </file>
@@ -168,17 +246,23 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF172B4D"/>
+      <name val="-apple-system"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -205,16 +289,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,7 +372,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -243,39 +388,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,37 +408,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -334,19 +418,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,7 +544,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,91 +580,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,55 +592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,6 +609,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,16 +655,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,28 +675,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,9 +701,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,159 +714,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1106,8 +1196,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1147,7 +1237,7 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
@@ -1167,7 +1257,7 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
@@ -1187,7 +1277,7 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
@@ -1207,7 +1297,7 @@
       <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E5" t="s">
@@ -1227,7 +1317,7 @@
       <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E6" t="s">
@@ -1239,11 +1329,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="reyhanee@gamil.com" tooltip="mailto:reyhanee@gamil.com"/>
-    <hyperlink ref="D3" r:id="rId2" display="yunusssu@gmail.com" tooltip="mailto:yunusssu@gmail.com"/>
-    <hyperlink ref="D4" r:id="rId3" display="gulsuminiic@gamil.com" tooltip="mailto:gulsuminiic@gamil.com"/>
-    <hyperlink ref="D5" r:id="rId4" display="senelDumann@gmail.com" tooltip="mailto:senelDumann@gmail.com"/>
-    <hyperlink ref="D6" r:id="rId5" display="turkerdogrueeer@gmail.com" tooltip="mailto:turkerdogrueeer@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId1" display="reyhaneeT@gamil.com" tooltip="mailto:reyhaneeT@gamil.com"/>
+    <hyperlink ref="D3" r:id="rId2" display="yunusssuY@gmail.com" tooltip="mailto:yunusssuY@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId3" display="gulsuminiicG@gamil.com" tooltip="mailto:gulsuminiicG@gamil.com"/>
+    <hyperlink ref="D5" r:id="rId4" display="senelDumannS@gmail.com" tooltip="mailto:senelDumannS@gmail.com"/>
+    <hyperlink ref="D6" r:id="rId5" display="turkerdogrueeerT@gmail.com" tooltip="mailto:turkerdogrueeerT@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1341,4 +1431,384 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="27.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="12.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" display="reyhaneeT@gamil.com" tooltip="mailto:reyhaneeT@gamil.com"/>
+    <hyperlink ref="D2" r:id="rId2" display="yunusssuY@gmail.com" tooltip="mailto:yunusssuY@gmail.com"/>
+    <hyperlink ref="D3" r:id="rId3" display="gulsuminiicG@gamil.com" tooltip="mailto:gulsuminiicG@gamil.com"/>
+    <hyperlink ref="D4" r:id="rId4" display="senelDumannS@gmail.com" tooltip="mailto:senelDumannS@gmail.com"/>
+    <hyperlink ref="D5" r:id="rId5" display="turkerdogrueeerT@gmail.com" tooltip="mailto:turkerdogrueeerT@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="10.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="26.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="12.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="reyhanBBD" tooltip="mailto:reyhaneeT@gamil.com"/>
+    <hyperlink ref="D3" r:id="rId2" display="yunusYakutTT" tooltip="mailto:yunusssuY@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId3" display="gulsumInceGG" tooltip="mailto:gulsuminiicG@gamil.com"/>
+    <hyperlink ref="D5" r:id="rId4" display="senelDumanYY" tooltip="mailto:senelDumannS@gmail.com"/>
+    <hyperlink ref="D6" r:id="rId5" display="turkerdogruerTT" tooltip="mailto:turkerdogrueeerT@gmail.com"/>
+    <hyperlink ref="E2" r:id="rId6" display="njfjffbf@H7" tooltip="mailto:njfjffbf@H7"/>
+    <hyperlink ref="E3" r:id="rId7" display="jhskjfhjk@F5"/>
+    <hyperlink ref="E6" r:id="rId8" display="jbkjvjbjvkjj@4Z"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="21.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="18.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="12.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="11.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="12.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="13.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.2222222222222" customWidth="1"/>
+    <col min="9" max="9" width="11.8888888888889" customWidth="1"/>
+    <col min="10" max="10" width="9.44444444444444" customWidth="1"/>
+    <col min="11" max="11" width="13.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>